--- a/REGULAR/RE-ENCODE/CHACON, ELISA.xlsx
+++ b/REGULAR/RE-ENCODE/CHACON, ELISA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SL(3-4-0)</t>
+  </si>
+  <si>
+    <t>4/4,5,11,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1327,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1498,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>174.23000000000002</v>
+        <v>170.73000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3319,8 +3325,12 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -3329,10 +3339,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>3.5</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>

--- a/REGULAR/RE-ENCODE/CHACON, ELISA.xlsx
+++ b/REGULAR/RE-ENCODE/CHACON, ELISA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>4/4,5,11,14/2023</t>
+  </si>
+  <si>
+    <t>5/11,15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1327,10 @@
   </sheetPr>
   <dimension ref="A2:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A81" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1491,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>78.972000000000008</v>
+        <v>78.472000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1498,7 +1501,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>170.73000000000002</v>
+        <v>173.23000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3331,13 +3334,15 @@
       <c r="B95" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39">
         <v>3.5</v>
@@ -3349,20 +3354,30 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
+      <c r="A96" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D96" s="39">
+        <v>3</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
